--- a/simulation_data/iterative_algorithm/i_error_level_6_percent_water_99.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_6_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.9293749027881</v>
+        <v>92.43125000403161</v>
       </c>
       <c r="D2" t="n">
-        <v>14.57535637865874</v>
+        <v>14.20708439060065</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.74798044485301</v>
+        <v>88.86568598454323</v>
       </c>
       <c r="D3" t="n">
-        <v>15.81534629182609</v>
+        <v>17.48348065614533</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>86.71951422589072</v>
+        <v>88.88951588270818</v>
       </c>
       <c r="D4" t="n">
-        <v>14.79919749108557</v>
+        <v>14.10466843448234</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>85.43029552194618</v>
+        <v>87.38855482244384</v>
       </c>
       <c r="D5" t="n">
-        <v>13.82596133043772</v>
+        <v>13.4617570177779</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.30957861222436</v>
+        <v>85.33922003009475</v>
       </c>
       <c r="D6" t="n">
-        <v>16.47868815708484</v>
+        <v>13.20136058434084</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.28519124743076</v>
+        <v>85.72884478013782</v>
       </c>
       <c r="D7" t="n">
-        <v>14.96817916561699</v>
+        <v>13.97442897248538</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.57016911908455</v>
+        <v>78.89667476290241</v>
       </c>
       <c r="D8" t="n">
-        <v>15.61755699792989</v>
+        <v>14.45458182631946</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.90628174403533</v>
+        <v>83.57455418270676</v>
       </c>
       <c r="D9" t="n">
-        <v>15.91565420018058</v>
+        <v>13.92465161433681</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.30174790481641</v>
+        <v>80.45533900193864</v>
       </c>
       <c r="D10" t="n">
-        <v>16.0639129204279</v>
+        <v>15.83674613297345</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.24256873445417</v>
+        <v>81.94799361405802</v>
       </c>
       <c r="D11" t="n">
-        <v>15.77232249814679</v>
+        <v>14.53522723005597</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.53093300738624</v>
+        <v>76.33822377145006</v>
       </c>
       <c r="D12" t="n">
-        <v>16.01599687505077</v>
+        <v>14.20671622354584</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.68045714748889</v>
+        <v>77.99031672363373</v>
       </c>
       <c r="D13" t="n">
-        <v>15.2549719107377</v>
+        <v>15.94582040153795</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.16934621845795</v>
+        <v>77.37627809487238</v>
       </c>
       <c r="D14" t="n">
-        <v>15.96118295796335</v>
+        <v>13.74455578485562</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.62045345146626</v>
+        <v>77.77630353034418</v>
       </c>
       <c r="D15" t="n">
-        <v>15.45747592487048</v>
+        <v>14.89312241883742</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.88268722827854</v>
+        <v>77.21491878685669</v>
       </c>
       <c r="D16" t="n">
-        <v>15.43680722063294</v>
+        <v>13.40618571015173</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.10856920936051</v>
+        <v>73.88657082855883</v>
       </c>
       <c r="D17" t="n">
-        <v>13.98863495458215</v>
+        <v>15.04667046282172</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.77360062716659</v>
+        <v>73.25365187507033</v>
       </c>
       <c r="D18" t="n">
-        <v>15.66376621094971</v>
+        <v>16.94878380875641</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.80424931510358</v>
+        <v>70.26594465625753</v>
       </c>
       <c r="D19" t="n">
-        <v>16.32004192367227</v>
+        <v>14.67200823774331</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>70.49469246017307</v>
+        <v>71.27322813031839</v>
       </c>
       <c r="D20" t="n">
-        <v>16.37590883274255</v>
+        <v>14.52208390071998</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>74.20262415982978</v>
+        <v>70.93152230874139</v>
       </c>
       <c r="D21" t="n">
-        <v>16.05605009817007</v>
+        <v>14.72650978817748</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>68.79221319087779</v>
+        <v>69.35969174302366</v>
       </c>
       <c r="D22" t="n">
-        <v>16.37673565075595</v>
+        <v>13.40590891955134</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.84185159826256</v>
+        <v>70.55862896407488</v>
       </c>
       <c r="D23" t="n">
-        <v>14.77965504478743</v>
+        <v>14.89071349201177</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>66.82834159986791</v>
+        <v>70.57504528894951</v>
       </c>
       <c r="D24" t="n">
-        <v>14.03908832807788</v>
+        <v>13.96233107273205</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.54780495620921</v>
+        <v>68.82776068566251</v>
       </c>
       <c r="D25" t="n">
-        <v>16.01291291868555</v>
+        <v>16.48912818173541</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.4611442854503</v>
+        <v>66.79627770846481</v>
       </c>
       <c r="D26" t="n">
-        <v>14.85131976629348</v>
+        <v>14.27706318155814</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.10552276807439</v>
+        <v>61.1468138026169</v>
       </c>
       <c r="D27" t="n">
-        <v>16.20525014721912</v>
+        <v>16.33537922694416</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.02164994403964</v>
+        <v>62.9353382299951</v>
       </c>
       <c r="D28" t="n">
-        <v>15.12749793936397</v>
+        <v>15.65220982979726</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.5815336120663</v>
+        <v>62.3691425654056</v>
       </c>
       <c r="D29" t="n">
-        <v>16.02340076654678</v>
+        <v>14.27343089720179</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.15951123328532</v>
+        <v>62.85644768709881</v>
       </c>
       <c r="D30" t="n">
-        <v>13.84312302926816</v>
+        <v>13.60741054972044</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.86422276175176</v>
+        <v>61.42994873787872</v>
       </c>
       <c r="D31" t="n">
-        <v>16.31092355375506</v>
+        <v>17.07183706935055</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.26592054845742</v>
+        <v>60.22110001891117</v>
       </c>
       <c r="D32" t="n">
-        <v>13.85288802131433</v>
+        <v>14.51961328264756</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.76561062206234</v>
+        <v>58.20755041245028</v>
       </c>
       <c r="D33" t="n">
-        <v>16.34746304616209</v>
+        <v>15.17138881415297</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.03754724971478</v>
+        <v>57.54639747608189</v>
       </c>
       <c r="D34" t="n">
-        <v>14.01045877163819</v>
+        <v>14.17026686031759</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.59427287788413</v>
+        <v>56.50239686662538</v>
       </c>
       <c r="D35" t="n">
-        <v>14.47461914625952</v>
+        <v>14.36668702102613</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.10669850147411</v>
+        <v>54.8563374216827</v>
       </c>
       <c r="D36" t="n">
-        <v>15.30795294550134</v>
+        <v>14.58981168558629</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>59.22024006855784</v>
+        <v>52.12470472902822</v>
       </c>
       <c r="D37" t="n">
-        <v>17.39125001152371</v>
+        <v>14.11889930658505</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.28525983833894</v>
+        <v>52.75997149304438</v>
       </c>
       <c r="D38" t="n">
-        <v>15.60676223343077</v>
+        <v>13.94504427235667</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>50.91015072769012</v>
+        <v>53.14251490925253</v>
       </c>
       <c r="D39" t="n">
-        <v>16.03363932261155</v>
+        <v>13.62377285006286</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>49.44940410126357</v>
+        <v>50.94074830758368</v>
       </c>
       <c r="D40" t="n">
-        <v>14.89007252711367</v>
+        <v>12.82108750275481</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.44371563903323</v>
+        <v>51.23043051324176</v>
       </c>
       <c r="D41" t="n">
-        <v>17.35462274229623</v>
+        <v>15.03031779528748</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.61929053771106</v>
+        <v>50.43063563585699</v>
       </c>
       <c r="D42" t="n">
-        <v>13.85543550991522</v>
+        <v>14.92315759199932</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.55727674768277</v>
+        <v>47.70781039647296</v>
       </c>
       <c r="D43" t="n">
-        <v>17.24968212877116</v>
+        <v>18.27691430079841</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>45.81012159385087</v>
+        <v>47.81479839892886</v>
       </c>
       <c r="D44" t="n">
-        <v>14.9467453268179</v>
+        <v>14.92803222031326</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>44.60880020553094</v>
+        <v>47.77677716978022</v>
       </c>
       <c r="D45" t="n">
-        <v>17.22365735604942</v>
+        <v>13.38645082225321</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.95365213223243</v>
+        <v>46.36408600223837</v>
       </c>
       <c r="D46" t="n">
-        <v>15.57195962338233</v>
+        <v>15.66680195262071</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.64089771200114</v>
+        <v>44.95998033917945</v>
       </c>
       <c r="D47" t="n">
-        <v>13.84265477286981</v>
+        <v>16.1074368107407</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.63190105528477</v>
+        <v>42.16061559620007</v>
       </c>
       <c r="D48" t="n">
-        <v>13.29602692777196</v>
+        <v>16.55500123836061</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>39.20790189100511</v>
+        <v>40.42374656498384</v>
       </c>
       <c r="D49" t="n">
-        <v>15.54998500178436</v>
+        <v>14.96629419647532</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.44555472652697</v>
+        <v>40.3335416611356</v>
       </c>
       <c r="D50" t="n">
-        <v>17.42280572544576</v>
+        <v>16.21565471418</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.98166190725468</v>
+        <v>39.16804338488361</v>
       </c>
       <c r="D51" t="n">
-        <v>16.11832105780349</v>
+        <v>16.36278817418701</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>37.97766950810119</v>
+        <v>40.0408040440394</v>
       </c>
       <c r="D52" t="n">
-        <v>15.9406918539756</v>
+        <v>16.1635899858616</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.0964173512198</v>
+        <v>37.32326813885656</v>
       </c>
       <c r="D53" t="n">
-        <v>15.1337475036728</v>
+        <v>18.17966678051481</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.58401558528431</v>
+        <v>37.85305420378064</v>
       </c>
       <c r="D54" t="n">
-        <v>13.51368420606763</v>
+        <v>11.89451547205633</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>39.17688463125299</v>
+        <v>38.71785735473838</v>
       </c>
       <c r="D55" t="n">
-        <v>13.86256767666844</v>
+        <v>15.47268200391753</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.46248068847611</v>
+        <v>34.5043814999141</v>
       </c>
       <c r="D56" t="n">
-        <v>15.9532508154501</v>
+        <v>14.25210598766886</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.47691445213047</v>
+        <v>34.41780590504167</v>
       </c>
       <c r="D57" t="n">
-        <v>15.49509632295118</v>
+        <v>13.43585779462273</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.87817397720936</v>
+        <v>33.18545814159599</v>
       </c>
       <c r="D58" t="n">
-        <v>16.8532068783068</v>
+        <v>17.07331965081203</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>29.42076550195402</v>
+        <v>31.82210616355037</v>
       </c>
       <c r="D59" t="n">
-        <v>16.49855261974061</v>
+        <v>13.11796735457246</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.73740492461408</v>
+        <v>29.45059637222877</v>
       </c>
       <c r="D60" t="n">
-        <v>16.3142672092469</v>
+        <v>16.35848988191742</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.87918247947304</v>
+        <v>30.79899601655141</v>
       </c>
       <c r="D61" t="n">
-        <v>15.40377318215478</v>
+        <v>15.84106761764286</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>33.05838441419137</v>
+        <v>30.90804620393489</v>
       </c>
       <c r="D62" t="n">
-        <v>15.03496279855711</v>
+        <v>16.59722929717834</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.38668938556539</v>
+        <v>27.95541222119375</v>
       </c>
       <c r="D63" t="n">
-        <v>14.63639871751628</v>
+        <v>14.7044469326913</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>25.50702853786834</v>
+        <v>27.10742335304024</v>
       </c>
       <c r="D64" t="n">
-        <v>14.82200976199903</v>
+        <v>12.78225950399238</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.72823115583022</v>
+        <v>25.58536828303713</v>
       </c>
       <c r="D65" t="n">
-        <v>15.70803987745307</v>
+        <v>14.62305917435207</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.65788158779956</v>
+        <v>25.81618689339499</v>
       </c>
       <c r="D66" t="n">
-        <v>14.67180882054132</v>
+        <v>15.49460196052043</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>21.69585549388622</v>
+        <v>24.85311635568972</v>
       </c>
       <c r="D67" t="n">
-        <v>16.45780503457333</v>
+        <v>14.66420816882262</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>21.42178904224633</v>
+        <v>24.36637486197149</v>
       </c>
       <c r="D68" t="n">
-        <v>12.72134279959014</v>
+        <v>13.39295599690268</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>21.03547961802363</v>
+        <v>23.11811606102152</v>
       </c>
       <c r="D69" t="n">
-        <v>15.07728033483758</v>
+        <v>15.10255693860566</v>
       </c>
     </row>
   </sheetData>
